--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/VinDoesntMatchAfterProductChange_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/VinDoesntMatchAfterProductChange_CA_SELECT.xlsx
@@ -170,15 +170,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>PASSAT</t>
-  </si>
-  <si>
-    <t>PASSAT S</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
-  </si>
-  <si>
     <t>VERSION</t>
   </si>
   <si>
@@ -186,6 +177,15 @@
   </si>
   <si>
     <t>1MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>TIGUAN S</t>
+  </si>
+  <si>
+    <t>TIGUAN</t>
+  </si>
+  <si>
+    <t>SUV</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,10 @@
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -561,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -668,10 +671,10 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
@@ -683,10 +686,10 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>88888</v>
@@ -695,13 +698,13 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
